--- a/doc/component_utilization_early_results.xlsx
+++ b/doc/component_utilization_early_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Slice LUTs</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Dual JT49</t>
+  </si>
+  <si>
+    <t>Quad SPI</t>
+  </si>
+  <si>
+    <t>riscv-dbg</t>
   </si>
 </sst>
 </file>
@@ -434,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P28"/>
+  <dimension ref="A3:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,21 +451,21 @@
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
     <col min="2" max="2" width="9.21875" customWidth="1"/>
     <col min="3" max="3" width="8.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="15" max="16" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" customWidth="1"/>
-    <col min="19" max="19" width="10.88671875" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" customWidth="1"/>
+    <col min="17" max="18" width="10.5546875" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7.77734375" customWidth="1"/>
+    <col min="21" max="21" width="10.88671875" customWidth="1"/>
+    <col min="22" max="22" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -470,43 +476,49 @@
         <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -520,46 +532,52 @@
         <v>3390</v>
       </c>
       <c r="E5">
+        <v>416</v>
+      </c>
+      <c r="F5">
         <v>5673</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f>2*277</f>
         <v>554</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>380</v>
-      </c>
-      <c r="H5">
-        <v>205</v>
       </c>
       <c r="I5">
         <v>205</v>
       </c>
       <c r="J5">
+        <v>205</v>
+      </c>
+      <c r="K5">
         <v>536</v>
       </c>
-      <c r="K5">
-        <v>84</v>
-      </c>
       <c r="L5">
+        <v>393</v>
+      </c>
+      <c r="M5">
         <v>438</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5">
+        <v>440</v>
+      </c>
+      <c r="O5" s="1">
         <v>0.2</v>
       </c>
-      <c r="N5">
-        <f>SUM(B5:L5)*(1+M5)</f>
-        <v>16304.4</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
+        <f>SUM(B5:N5)*(1+O5)</f>
+        <v>17702.399999999998</v>
+      </c>
+      <c r="Q5">
         <v>20800</v>
       </c>
-      <c r="P5" s="1">
-        <f>N5/O5</f>
-        <v>0.78386538461538458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R5" s="1">
+        <f>P5/Q5</f>
+        <v>0.85107692307692295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -573,46 +591,52 @@
         <v>911</v>
       </c>
       <c r="E6">
+        <v>426</v>
+      </c>
+      <c r="F6">
         <v>5060</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f>2*311</f>
         <v>622</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>167</v>
-      </c>
-      <c r="H6">
-        <v>185</v>
       </c>
       <c r="I6">
         <v>185</v>
       </c>
       <c r="J6">
+        <v>185</v>
+      </c>
+      <c r="K6">
         <v>749</v>
       </c>
-      <c r="K6">
-        <v>114</v>
-      </c>
       <c r="L6">
+        <v>324</v>
+      </c>
+      <c r="M6">
         <v>346</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6">
+        <v>641</v>
+      </c>
+      <c r="O6" s="1">
         <v>0.2</v>
       </c>
-      <c r="N6">
-        <f>SUM(B6:L6)*(1+M6)</f>
-        <v>11736</v>
-      </c>
-      <c r="O6">
+      <c r="P6">
+        <f>SUM(B6:N6)*(1+O6)</f>
+        <v>13268.4</v>
+      </c>
+      <c r="Q6">
         <v>41600</v>
       </c>
-      <c r="P6" s="1">
-        <f>N6/O6</f>
-        <v>0.2821153846153846</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R6" s="1">
+        <f>P6/Q6</f>
+        <v>0.31895192307692305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -630,20 +654,20 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <f>2*0.5</f>
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.5</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -651,22 +675,28 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
         <v>0.2</v>
       </c>
-      <c r="N7">
-        <f>SUM(B7:L7)*(1+M7)</f>
-        <v>72.599999999999994</v>
-      </c>
-      <c r="O7">
+      <c r="P7">
+        <f>SUM(B7:N7)*(1+O7)</f>
+        <v>71.399999999999991</v>
+      </c>
+      <c r="Q7">
         <v>50</v>
       </c>
-      <c r="P7" s="1">
-        <f>N7/O7</f>
-        <v>1.452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R7" s="1">
+        <f>P7/Q7</f>
+        <v>1.4279999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -703,33 +733,39 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
         <v>0.2</v>
       </c>
-      <c r="N8">
-        <f>SUM(B8:L8)*(1+M8)</f>
+      <c r="P8">
+        <f>SUM(B8:N8)*(1+O8)</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>90</v>
       </c>
-      <c r="P8" s="1">
-        <f>N8/O8</f>
+      <c r="R8" s="1">
+        <f>P8/Q8</f>
         <v>3.9999999999999994E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="M9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -740,43 +776,49 @@
         <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -790,46 +832,52 @@
         <v>3390</v>
       </c>
       <c r="E12">
+        <v>416</v>
+      </c>
+      <c r="F12">
         <v>5673</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f>2*277</f>
         <v>554</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>380</v>
-      </c>
-      <c r="H12">
-        <v>205</v>
       </c>
       <c r="I12">
         <v>205</v>
       </c>
       <c r="J12">
+        <v>205</v>
+      </c>
+      <c r="K12">
         <v>536</v>
       </c>
-      <c r="K12">
-        <v>84</v>
-      </c>
       <c r="L12">
+        <v>393</v>
+      </c>
+      <c r="M12">
         <v>438</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12">
+        <v>440</v>
+      </c>
+      <c r="O12" s="1">
         <v>0.2</v>
       </c>
-      <c r="N12">
-        <f>SUM(B12:L12)*(1+M12)</f>
-        <v>16304.4</v>
-      </c>
-      <c r="O12">
+      <c r="P12">
+        <f>SUM(B12:N12)*(1+O12)</f>
+        <v>17702.399999999998</v>
+      </c>
+      <c r="Q12">
         <v>20800</v>
       </c>
-      <c r="P12" s="1">
-        <f>N12/O12</f>
-        <v>0.78386538461538458</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R12" s="1">
+        <f>P12/Q12</f>
+        <v>0.85107692307692295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
@@ -843,46 +891,52 @@
         <v>911</v>
       </c>
       <c r="E13">
+        <v>426</v>
+      </c>
+      <c r="F13">
         <v>5060</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f>2*311</f>
         <v>622</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>167</v>
-      </c>
-      <c r="H13">
-        <v>185</v>
       </c>
       <c r="I13">
         <v>185</v>
       </c>
       <c r="J13">
+        <v>185</v>
+      </c>
+      <c r="K13">
         <v>749</v>
       </c>
-      <c r="K13">
-        <v>114</v>
-      </c>
       <c r="L13">
+        <v>324</v>
+      </c>
+      <c r="M13">
         <v>346</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13">
+        <v>641</v>
+      </c>
+      <c r="O13" s="1">
         <v>0.2</v>
       </c>
-      <c r="N13">
-        <f>SUM(B13:L13)*(1+M13)</f>
-        <v>11736</v>
-      </c>
-      <c r="O13">
+      <c r="P13">
+        <f>SUM(B13:N13)*(1+O13)</f>
+        <v>13268.4</v>
+      </c>
+      <c r="Q13">
         <v>41600</v>
       </c>
-      <c r="P13" s="1">
-        <f>N13/O13</f>
-        <v>0.2821153846153846</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R13" s="1">
+        <f>P13/Q13</f>
+        <v>0.31895192307692305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -900,20 +954,20 @@
         <v>0</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <f>2*0.5</f>
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.5</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -921,22 +975,28 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
         <v>0.1</v>
       </c>
-      <c r="N14">
-        <f>SUM(B14:L14)*(1+M14)</f>
-        <v>48.95</v>
-      </c>
-      <c r="O14">
+      <c r="P14">
+        <f>SUM(B14:N14)*(1+O14)</f>
+        <v>47.85</v>
+      </c>
+      <c r="Q14">
         <v>50</v>
       </c>
-      <c r="P14" s="1">
-        <f>N14/O14</f>
-        <v>0.97900000000000009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R14" s="1">
+        <f>P14/Q14</f>
+        <v>0.95700000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -973,34 +1033,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
         <v>0.2</v>
       </c>
-      <c r="N15">
-        <f>SUM(B15:L15)*(1+M15)</f>
+      <c r="P15">
+        <f>SUM(B15:N15)*(1+O15)</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>90</v>
       </c>
-      <c r="P15" s="1">
-        <f>N15/O15</f>
+      <c r="R15" s="1">
+        <f>P15/Q15</f>
         <v>3.9999999999999994E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="M16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1011,43 +1077,49 @@
         <v>18</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
@@ -1061,46 +1133,52 @@
         <v>3390</v>
       </c>
       <c r="E19">
+        <v>416</v>
+      </c>
+      <c r="F19">
         <v>5673</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f>2*277</f>
         <v>554</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>380</v>
-      </c>
-      <c r="H19">
-        <v>205</v>
       </c>
       <c r="I19">
         <v>205</v>
       </c>
       <c r="J19">
+        <v>205</v>
+      </c>
+      <c r="K19">
         <v>536</v>
       </c>
-      <c r="K19">
-        <v>84</v>
-      </c>
       <c r="L19">
+        <v>393</v>
+      </c>
+      <c r="M19">
         <v>438</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19">
+        <v>440</v>
+      </c>
+      <c r="O19" s="1">
         <v>0.2</v>
       </c>
-      <c r="N19">
-        <f>SUM(B19:L19)*(1+M19)</f>
-        <v>16304.4</v>
-      </c>
-      <c r="O19">
+      <c r="P19">
+        <f>SUM(B19:N19)*(1+O19)</f>
+        <v>17702.399999999998</v>
+      </c>
+      <c r="Q19">
         <v>63400</v>
       </c>
-      <c r="P19" s="1">
-        <f>N19/O19</f>
-        <v>0.25716719242902208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R19" s="1">
+        <f>P19/Q19</f>
+        <v>0.27921766561514194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>1</v>
       </c>
@@ -1114,46 +1192,52 @@
         <v>911</v>
       </c>
       <c r="E20">
+        <v>426</v>
+      </c>
+      <c r="F20">
         <v>5060</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f>2*311</f>
         <v>622</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>167</v>
-      </c>
-      <c r="H20">
-        <v>185</v>
       </c>
       <c r="I20">
         <v>185</v>
       </c>
       <c r="J20">
+        <v>185</v>
+      </c>
+      <c r="K20">
         <v>749</v>
       </c>
-      <c r="K20">
-        <v>114</v>
-      </c>
       <c r="L20">
+        <v>324</v>
+      </c>
+      <c r="M20">
         <v>346</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20">
+        <v>641</v>
+      </c>
+      <c r="O20" s="1">
         <v>0.2</v>
       </c>
-      <c r="N20">
-        <f>SUM(B20:L20)*(1+M20)</f>
-        <v>11736</v>
-      </c>
-      <c r="O20">
+      <c r="P20">
+        <f>SUM(B20:N20)*(1+O20)</f>
+        <v>13268.4</v>
+      </c>
+      <c r="Q20">
         <v>126800</v>
       </c>
-      <c r="P20" s="1">
-        <f>N20/O20</f>
-        <v>9.2555205047318609E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R20" s="1">
+        <f>P20/Q20</f>
+        <v>0.10464037854889589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
@@ -1171,20 +1255,20 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <f>2*0.5</f>
         <v>1</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.5</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1192,22 +1276,28 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
         <v>0.2</v>
       </c>
-      <c r="N21">
-        <f>SUM(B21:L21)*(1+M21)</f>
-        <v>130.19999999999999</v>
-      </c>
-      <c r="O21">
+      <c r="P21">
+        <f>SUM(B21:N21)*(1+O21)</f>
+        <v>129</v>
+      </c>
+      <c r="Q21">
         <v>135</v>
       </c>
-      <c r="P21" s="1">
-        <f>N21/O21</f>
-        <v>0.96444444444444433</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R21" s="1">
+        <f>P21/Q21</f>
+        <v>0.9555555555555556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -1244,58 +1334,65 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
         <v>0.2</v>
       </c>
-      <c r="N22">
-        <f>SUM(B22:L22)*(1+M22)</f>
+      <c r="P22">
+        <f>SUM(B22:N22)*(1+O22)</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>240</v>
       </c>
-      <c r="P22" s="1">
-        <f>N22/O22</f>
+      <c r="R22" s="1">
+        <f>P22/Q22</f>
         <v>1.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>2509</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1916</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D26">
         <v>910</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>769</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0</v>
       </c>
     </row>
